--- a/研发计划CMS.xlsx
+++ b/研发计划CMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="26号版本" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>事项</t>
   </si>
@@ -59,22 +59,25 @@
     <t>商品简单增删改查</t>
   </si>
   <si>
+    <t>筛选条件完善</t>
+  </si>
+  <si>
+    <t>商品状态选择</t>
+  </si>
+  <si>
+    <t>日期展示问题</t>
+  </si>
+  <si>
+    <t>商品详情页展示</t>
+  </si>
+  <si>
+    <t>导入导出</t>
+  </si>
+  <si>
+    <t>完善标签分类</t>
+  </si>
+  <si>
     <t>图片展示、保存</t>
-  </si>
-  <si>
-    <t>筛选条件完善</t>
-  </si>
-  <si>
-    <t>商品状态选择</t>
-  </si>
-  <si>
-    <t>日期展示问题</t>
-  </si>
-  <si>
-    <t>商品详情页展示</t>
-  </si>
-  <si>
-    <t>导入导出</t>
   </si>
   <si>
     <t>商品展示用格子模型展示（。。。）</t>
@@ -395,22 +398,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,6 +434,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,175 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,142 +731,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,12 +1286,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1392,25 +1395,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:1">
       <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="11"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A6:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1470,13 +1497,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:13">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -1494,10 +1521,10 @@
     <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:13">
       <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -1515,10 +1542,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
@@ -1530,16 +1557,16 @@
         <v>43545</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
         <v>0.5</v>
@@ -1548,10 +1575,10 @@
     <row r="6" spans="1:8">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
         <v>0.5</v>
@@ -1580,13 +1607,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1599,10 +1626,10 @@
     <row r="9" spans="1:8">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1615,10 +1642,10 @@
     <row r="10" spans="1:9">
       <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -1630,7 +1657,7 @@
         <v>43549</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1643,13 +1670,13 @@
     </row>
     <row r="13" ht="27" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="7">
@@ -1659,10 +1686,10 @@
     <row r="14" spans="1:6">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="7">
@@ -1672,10 +1699,10 @@
     <row r="15" spans="1:6">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="7">
@@ -1685,10 +1712,10 @@
     <row r="16" spans="1:6">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="7">
@@ -1698,10 +1725,10 @@
     <row r="17" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="7">
@@ -1714,10 +1741,10 @@
     <row r="18" s="4" customFormat="1" spans="1:7">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -1736,18 +1763,18 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="14.4" customHeight="1" spans="1:13">
       <c r="A21" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="16"/>
@@ -1760,46 +1787,46 @@
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="11"/>
       <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H24" s="15">
         <v>43565</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -1807,10 +1834,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H26" s="15">
         <v>43569</v>
@@ -1818,13 +1845,13 @@
     </row>
     <row r="27" s="4" customFormat="1" ht="27" spans="1:9">
       <c r="A27" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="19"/>
@@ -1833,52 +1860,52 @@
       </c>
       <c r="G27" s="14"/>
       <c r="I27" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:7">
       <c r="A28" s="17"/>
       <c r="B28" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28" s="14"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:7">
       <c r="A29" s="17"/>
       <c r="B29" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" s="14"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:8">
@@ -1890,7 +1917,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
       <c r="H31" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:7">
@@ -1905,7 +1932,7 @@
     <row r="33" s="4" customFormat="1" spans="1:8">
       <c r="A33" s="17"/>
       <c r="B33" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="13"/>
@@ -1915,7 +1942,7 @@
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
